--- a/biology/Zoologie/Alsodes_gargola/Alsodes_gargola.xlsx
+++ b/biology/Zoologie/Alsodes_gargola/Alsodes_gargola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alsodes gargola est une espèce d'amphibiens de la famille des Alsodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alsodes gargola est une espèce d'amphibiens de la famille des Alsodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud de l'Argentine. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud de l'Argentine. Elle se rencontre :
 dans le Parc national Nahuel Huapi dans la province de Río Negro ;
 dans le Parc national Los Alerces et dans le Parc national du lac Puelo, dans la province de Chubut ;
 Elle est présente entre 200 et 2 200 m d'altitude.
@@ -545,7 +559,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-espèce Alsodes gargola neuquensis a été élevée au rang d'espèce.
 </t>
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gallardo, 1970 : A propósito de los Telmatobiinae (Anura, Leptodactylidae) patagónicos. Neotropica, vol. 16, p. 73-85.</t>
         </is>
